--- a/target/classes/data/TestCaseData/SomeTestCases.xlsx
+++ b/target/classes/data/TestCaseData/SomeTestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Key</t>
   </si>
@@ -55,10 +55,31 @@
     <t>EPM Servers</t>
   </si>
   <si>
-    <t>rName</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>uName</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Enforce</t>
+  </si>
+  <si>
+    <t>phu</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>administration|auditor|reporting</t>
   </si>
 </sst>
 </file>
@@ -368,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,22 +455,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/data/TestCaseData/SomeTestCases.xlsx
+++ b/target/classes/data/TestCaseData/SomeTestCases.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20145" windowHeight="6045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20145" windowHeight="6045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Role" sheetId="2" r:id="rId2"/>
+    <sheet name="SNMP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Key</t>
   </si>
@@ -80,6 +81,18 @@
   </si>
   <si>
     <t>administration|auditor|reporting</t>
+  </si>
+  <si>
+    <t>securityName</t>
+  </si>
+  <si>
+    <t>khang</t>
+  </si>
+  <si>
+    <t>authPro</t>
+  </si>
+  <si>
+    <t>MD5</t>
   </si>
 </sst>
 </file>
@@ -90,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,10 +416,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -457,13 +470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -503,4 +516,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/data/TestCaseData/SomeTestCases.xlsx
+++ b/target/classes/data/TestCaseData/SomeTestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Key</t>
   </si>
@@ -92,7 +92,34 @@
     <t>authPro</t>
   </si>
   <si>
-    <t>MD5</t>
+    <t>authPass</t>
+  </si>
+  <si>
+    <t>privPro</t>
+  </si>
+  <si>
+    <t>privPass</t>
+  </si>
+  <si>
+    <t>DES|AES128|AES192|AES256</t>
+  </si>
+  <si>
+    <t>MD5|SHA</t>
+  </si>
+  <si>
+    <t>SNMPserver</t>
+  </si>
+  <si>
+    <t>SNMPuser</t>
+  </si>
+  <si>
+    <t>SNMPpass</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>100.30.7.130</t>
   </si>
 </sst>
 </file>
@@ -402,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,28 +547,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/data/TestCaseData/SomeTestCases.xlsx
+++ b/target/classes/data/TestCaseData/SomeTestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Key</t>
   </si>
@@ -101,9 +101,6 @@
     <t>privPass</t>
   </si>
   <si>
-    <t>DES|AES128|AES192|AES256</t>
-  </si>
-  <si>
     <t>MD5|SHA</t>
   </si>
   <si>
@@ -119,7 +116,13 @@
     <t>root</t>
   </si>
   <si>
-    <t>100.30.7.130</t>
+    <t>10.30.4.77</t>
+  </si>
+  <si>
+    <t>rootpw</t>
+  </si>
+  <si>
+    <t>DES|AES128</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -582,13 +585,13 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -596,25 +599,25 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/data/TestCaseData/SomeTestCases.xlsx
+++ b/target/classes/data/TestCaseData/SomeTestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Key</t>
   </si>
@@ -101,6 +101,9 @@
     <t>privPass</t>
   </si>
   <si>
+    <t>DES|AES128|AES192|AES256</t>
+  </si>
+  <si>
     <t>MD5|SHA</t>
   </si>
   <si>
@@ -116,13 +119,7 @@
     <t>root</t>
   </si>
   <si>
-    <t>10.30.4.77</t>
-  </si>
-  <si>
-    <t>rootpw</t>
-  </si>
-  <si>
-    <t>DES|AES128</t>
+    <t>100.30.7.130</t>
   </si>
 </sst>
 </file>
@@ -553,7 +550,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -585,13 +582,13 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -599,25 +596,25 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
